--- a/水汪汪编辑器/GamePlugins/ExcelTool/Excel/对象池配置表.xlsx
+++ b/水汪汪编辑器/GamePlugins/ExcelTool/Excel/对象池配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\UnityProject\水汪汪编辑器开发\Assets\水汪汪编辑器\GamePlugins\ExcelTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A41C8-E9FC-4AD2-AF22-B264077E55E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D1B41-E4C9-4F41-A1F7-0CB8EDD27C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2604" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="2748" windowWidth="19332" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PoolObjMaxSizeinfo" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上限组上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,22 +80,33 @@
     <t>Circulate</t>
   </si>
   <si>
+    <t>PoolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池子类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设组上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
     <t>Expansion</t>
-  </si>
-  <si>
-    <t>PoolType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>池子类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +120,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -460,13 +460,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -482,18 +482,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,27 +501,38 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>30</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1048576 D3" xr:uid="{3DBA0F40-9715-4512-AB1B-F017654BC51B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 C5:C1048576" xr:uid="{3DBA0F40-9715-4512-AB1B-F017654BC51B}">
       <formula1>"Circulate,Expansion,Fixed"</formula1>
     </dataValidation>
   </dataValidations>
